--- a/Schemota/МНФ КАРНО.xlsx
+++ b/Schemota/МНФ КАРНО.xlsx
@@ -196,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -213,11 +213,26 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -248,11 +263,23 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,13 +584,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="6.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:22" x14ac:dyDescent="0.25">
@@ -1122,94 +1155,94 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G60" s="1" t="s">
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F62" s="9"/>
-      <c r="G62" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="16" t="s">
+      <c r="F62" s="17"/>
+      <c r="G62" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F63" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="9" t="s">
+      <c r="F63" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J63" s="11" t="s">
+      <c r="I63" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" s="15" t="s">
+      <c r="F64" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H64" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J64" s="11" t="s">
+      <c r="H64" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F65" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="9" t="s">
+      <c r="F65" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F66" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J66" s="11" t="s">
+      <c r="F66" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1275,10 +1308,10 @@
       <c r="E76" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="17" t="s">
+      <c r="F76" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="16" t="s">
         <v>8</v>
       </c>
       <c r="H76" s="9"/>
